--- a/ubuntu VS centOS.xlsx
+++ b/ubuntu VS centOS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyicwux\Documents\github\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F8B044-568B-413F-9340-D692171AC911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23209" windowHeight="9390" activeTab="5"/>
+    <workbookView xWindow="2626" yWindow="218" windowWidth="17425" windowHeight="11459" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信息命令" sheetId="1" r:id="rId1"/>
@@ -13,18 +19,19 @@
     <sheet name="centos" sheetId="3" r:id="rId4"/>
     <sheet name="alpine" sheetId="4" r:id="rId5"/>
     <sheet name="ssh" sheetId="5" r:id="rId6"/>
+    <sheet name="xargs awk" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>yichang</author>
   </authors>
   <commentList>
-    <comment ref="C89" authorId="0">
+    <comment ref="C89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C90" authorId="0">
+    <comment ref="C90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +81,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>yichang</author>
   </authors>
   <commentList>
-    <comment ref="C23" authorId="0">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -128,12 +135,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>yichang</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0">
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -293,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D47" authorId="0">
+    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -339,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0">
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -361,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="0">
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="0">
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -406,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C81" authorId="0">
+    <comment ref="C82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -428,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C82" authorId="0">
+    <comment ref="C83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -450,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D85" authorId="0">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -472,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D92" authorId="0">
+    <comment ref="D93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -494,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D94" authorId="0">
+    <comment ref="D95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -516,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D96" authorId="0">
+    <comment ref="D97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -538,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0">
+    <comment ref="C99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -567,12 +574,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>yichang</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -599,7 +606,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="564">
   <si>
     <t>系统信息</t>
   </si>
@@ -1950,7 +1957,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1960,7 +1967,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2336,22 +2343,98 @@
   <si>
     <t>Bridge: Ok</t>
   </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>sudo service ssh start</t>
+  </si>
+  <si>
+    <t>sshd: no hostkeys available -- exiting.</t>
+  </si>
+  <si>
+    <t>sudo ssh-keygen -A  (create host key)</t>
+  </si>
+  <si>
+    <t>sudo vi /etc/ssh/sshd_config
+PasswordAuthentication yes
+sudo service ssh restart</t>
+  </si>
+  <si>
+    <t>ssh -i ~/.ssh/id_rsa.pub ubuntu@100.121.115.153</t>
+  </si>
+  <si>
+    <t>Permission denied (publickey)</t>
+  </si>
+  <si>
+    <t>ssh ubuntu@100.121.115.153 "/usr/bin/kubectl apply</t>
+  </si>
+  <si>
+    <t>Authentication required</t>
+  </si>
+  <si>
+    <t>jenkins.configure Global Security.Allow anonymous read access</t>
+  </si>
+  <si>
+    <t>ssh command don't read ~/.bashrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl fail </t>
+  </si>
+  <si>
+    <t>sudo vi /etc/ssh/sshd_config
+AcceptEnv * (accept all env)
+sudo service ssh restart</t>
+  </si>
+  <si>
+    <t>sudo service ssh status</t>
+  </si>
+  <si>
+    <t>echo -e 'hello world'| xargs -n 1</t>
+  </si>
+  <si>
+    <t>按顺序取一个为参数</t>
+  </si>
+  <si>
+    <t>echo -e 'hello world good day'| xargs -n2</t>
+  </si>
+  <si>
+    <t>hello world
+good day</t>
+  </si>
+  <si>
+    <t>echo -e 'hello world good day'| xargs -n3</t>
+  </si>
+  <si>
+    <t>hello world good
+day</t>
+  </si>
+  <si>
+    <t>echo -e 'hello world \ngood day'| awk '{print $1}'</t>
+  </si>
+  <si>
+    <t>hello
+good</t>
+  </si>
+  <si>
+    <t>echo -e 'hello world \ngood day'| awk '{print $1}' | cat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2359,150 +2442,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2518,7 +2465,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2531,194 +2478,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2726,251 +2487,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2981,7 +2503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3015,61 +2537,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3327,24 +2806,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88990825688073" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.55"/>
   <cols>
-    <col min="2" max="2" width="20.8899082568807" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.3302752293578" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1100917431193" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1009174311927" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -3361,7 +2840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:5">
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
@@ -3369,7 +2848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="29.05" spans="2:4">
+    <row r="3" spans="2:5" ht="29.05">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3380,7 +2859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="29.05" spans="2:5">
+    <row r="4" spans="2:5" ht="29.05">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3391,7 +2870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="29.05" spans="2:5">
+    <row r="5" spans="2:5" ht="29.05">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3424,7 +2903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="29.05" spans="2:3">
+    <row r="8" spans="2:5" ht="29.05">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -3443,7 +2922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="29.05" spans="2:5">
+    <row r="10" spans="2:5" ht="29.05">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -3454,7 +2933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="72.6" spans="2:5">
+    <row r="11" spans="2:5" ht="72.599999999999994">
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3468,7 +2947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="29.05" spans="2:5">
+    <row r="12" spans="2:5" ht="29.05">
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
@@ -3490,12 +2969,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:5">
       <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="2:4">
+    <row r="17" spans="2:5" s="4" customFormat="1">
       <c r="B17" s="12" t="s">
         <v>34</v>
       </c>
@@ -3504,7 +2983,7 @@
       </c>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" s="4" customFormat="1" spans="2:4">
+    <row r="18" spans="2:5" s="4" customFormat="1">
       <c r="B18" s="12" t="s">
         <v>36</v>
       </c>
@@ -3513,7 +2992,7 @@
       </c>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" ht="29.05" spans="2:5">
+    <row r="19" spans="2:5" ht="29.05">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
@@ -3524,7 +3003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" spans="2:4">
+    <row r="20" spans="2:5" s="4" customFormat="1">
       <c r="B20" s="12" t="s">
         <v>40</v>
       </c>
@@ -3533,7 +3012,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" s="4" customFormat="1" spans="2:4">
+    <row r="21" spans="2:5" s="4" customFormat="1">
       <c r="B21" s="12" t="s">
         <v>42</v>
       </c>
@@ -3542,7 +3021,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" s="4" customFormat="1" spans="2:5">
+    <row r="22" spans="2:5" s="4" customFormat="1">
       <c r="B22" s="12" t="s">
         <v>44</v>
       </c>
@@ -3554,7 +3033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" spans="2:4">
+    <row r="23" spans="2:5" s="4" customFormat="1">
       <c r="B23" s="12" t="s">
         <v>46</v>
       </c>
@@ -3563,7 +3042,7 @@
       </c>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" s="4" customFormat="1" spans="2:4">
+    <row r="24" spans="2:5" s="4" customFormat="1">
       <c r="B24" s="12" t="s">
         <v>48</v>
       </c>
@@ -3572,7 +3051,7 @@
       </c>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" s="4" customFormat="1" spans="2:4">
+    <row r="25" spans="2:5" s="4" customFormat="1">
       <c r="B25" s="12" t="s">
         <v>50</v>
       </c>
@@ -3581,7 +3060,7 @@
       </c>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:5">
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
@@ -3589,7 +3068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:5">
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
@@ -3597,7 +3076,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" ht="29.05" spans="2:3">
+    <row r="28" spans="2:5" ht="29.05">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -3605,7 +3084,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="29.05" spans="2:3">
+    <row r="29" spans="2:5" ht="29.05">
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
@@ -3613,7 +3092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:5">
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
@@ -3621,7 +3100,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" ht="29.05" spans="2:3">
+    <row r="31" spans="2:5" ht="29.05">
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
@@ -3629,7 +3108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" ht="58.1" spans="2:3">
+    <row r="32" spans="2:5" ht="58.1">
       <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
@@ -3637,7 +3116,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" ht="29.05" spans="2:3">
+    <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
@@ -3645,27 +3124,27 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" s="4" customFormat="1" spans="2:4">
+    <row r="35" spans="2:5" s="4" customFormat="1">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" s="4" customFormat="1" spans="2:4">
+    <row r="36" spans="2:5" s="4" customFormat="1">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" s="4" customFormat="1" spans="2:4">
+    <row r="37" spans="2:5" s="4" customFormat="1">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" s="4" customFormat="1" spans="2:4">
+    <row r="38" spans="2:5" s="4" customFormat="1">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" s="4" customFormat="1" spans="2:4">
+    <row r="39" spans="2:5" s="4" customFormat="1">
       <c r="B39" s="11" t="s">
         <v>68</v>
       </c>
@@ -3683,7 +3162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" ht="29.05" spans="2:3">
+    <row r="41" spans="2:5" ht="29.05">
       <c r="B41" s="1" t="s">
         <v>71</v>
       </c>
@@ -3691,7 +3170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:5">
       <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
@@ -3699,7 +3178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:5">
       <c r="B43" s="1" t="s">
         <v>75</v>
       </c>
@@ -3721,7 +3200,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:5">
       <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,7 +3208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:5">
       <c r="B46" s="1" t="s">
         <v>81</v>
       </c>
@@ -3737,7 +3216,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:5">
       <c r="B47" s="1" t="s">
         <v>83</v>
       </c>
@@ -3745,7 +3224,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:5">
       <c r="B48" s="1" t="s">
         <v>85</v>
       </c>
@@ -3753,7 +3232,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" ht="29.05" spans="2:3">
+    <row r="49" spans="2:5" ht="29.05">
       <c r="B49" s="1" t="s">
         <v>87</v>
       </c>
@@ -3772,12 +3251,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:5">
       <c r="B52" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" ht="43.55" spans="2:3">
+    <row r="53" spans="2:5" ht="43.6">
       <c r="B53" s="1" t="s">
         <v>92</v>
       </c>
@@ -3785,7 +3264,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" ht="29.05" spans="2:3">
+    <row r="54" spans="2:5" ht="29.05">
       <c r="B54" s="1" t="s">
         <v>94</v>
       </c>
@@ -3793,7 +3272,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:5" ht="29.05">
       <c r="B55" s="1" t="s">
         <v>96</v>
       </c>
@@ -3801,7 +3280,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:5">
       <c r="B56" s="1" t="s">
         <v>98</v>
       </c>
@@ -3809,7 +3288,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" ht="29.05" spans="2:3">
+    <row r="57" spans="2:5">
       <c r="B57" s="1" t="s">
         <v>100</v>
       </c>
@@ -3817,7 +3296,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:5">
       <c r="B58" s="1" t="s">
         <v>102</v>
       </c>
@@ -3825,7 +3304,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" ht="29.05" spans="2:3">
+    <row r="59" spans="2:5" ht="29.05">
       <c r="B59" s="1" t="s">
         <v>104</v>
       </c>
@@ -3833,7 +3312,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" ht="29.05" spans="2:3">
+    <row r="60" spans="2:5" ht="29.05">
       <c r="B60" s="1" t="s">
         <v>106</v>
       </c>
@@ -3841,7 +3320,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" ht="29.05" spans="2:3">
+    <row r="61" spans="2:5" ht="29.05">
       <c r="B61" s="1" t="s">
         <v>108</v>
       </c>
@@ -3849,7 +3328,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" ht="29.05" spans="2:3">
+    <row r="62" spans="2:5" ht="29.05">
       <c r="B62" s="1" t="s">
         <v>110</v>
       </c>
@@ -3857,7 +3336,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" s="4" customFormat="1" spans="2:5">
+    <row r="64" spans="2:5" s="4" customFormat="1">
       <c r="B64" s="11" t="s">
         <v>112</v>
       </c>
@@ -3867,7 +3346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" s="4" customFormat="1" spans="2:5">
+    <row r="65" spans="1:5" s="4" customFormat="1">
       <c r="B65" s="12" t="s">
         <v>113</v>
       </c>
@@ -3879,7 +3358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" s="4" customFormat="1" spans="2:5">
+    <row r="66" spans="1:5" s="4" customFormat="1">
       <c r="B66" s="12" t="s">
         <v>115</v>
       </c>
@@ -3891,7 +3370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" s="4" customFormat="1" spans="2:5">
+    <row r="67" spans="1:5" s="4" customFormat="1">
       <c r="B67" s="12" t="s">
         <v>117</v>
       </c>
@@ -3905,7 +3384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" s="4" customFormat="1" spans="2:4">
+    <row r="68" spans="1:5" s="4" customFormat="1">
       <c r="B68" s="12" t="s">
         <v>120</v>
       </c>
@@ -3914,7 +3393,7 @@
       </c>
       <c r="D68" s="12"/>
     </row>
-    <row r="69" s="4" customFormat="1" spans="2:4">
+    <row r="69" spans="1:5" s="4" customFormat="1">
       <c r="B69" s="12" t="s">
         <v>122</v>
       </c>
@@ -3945,7 +3424,7 @@
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
     </row>
-    <row r="72" s="4" customFormat="1" spans="2:4">
+    <row r="72" spans="1:5" s="4" customFormat="1">
       <c r="B72" s="12" t="s">
         <v>128</v>
       </c>
@@ -3954,7 +3433,7 @@
       </c>
       <c r="D72" s="12"/>
     </row>
-    <row r="73" s="4" customFormat="1" spans="2:4">
+    <row r="73" spans="1:5" s="4" customFormat="1">
       <c r="B73" s="12" t="s">
         <v>130</v>
       </c>
@@ -3963,12 +3442,12 @@
       </c>
       <c r="D73" s="12"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:5">
       <c r="B75" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="1:5">
       <c r="B76" s="1" t="s">
         <v>133</v>
       </c>
@@ -3979,7 +3458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="1:5">
       <c r="B77" s="1" t="s">
         <v>135</v>
       </c>
@@ -3990,7 +3469,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="1:5">
       <c r="B78" s="1" t="s">
         <v>138</v>
       </c>
@@ -3998,7 +3477,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" ht="43.55" spans="2:5">
+    <row r="79" spans="1:5" ht="43.6">
       <c r="B79" s="1" t="s">
         <v>140</v>
       </c>
@@ -4009,7 +3488,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" ht="29.05" spans="2:3">
+    <row r="80" spans="1:5" ht="29.05">
       <c r="B80" s="1" t="s">
         <v>143</v>
       </c>
@@ -4017,7 +3496,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:5">
       <c r="B81" s="1" t="s">
         <v>145</v>
       </c>
@@ -4025,7 +3504,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:5">
       <c r="B82" s="1" t="s">
         <v>147</v>
       </c>
@@ -4044,7 +3523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:5">
       <c r="B84" s="1" t="s">
         <v>151</v>
       </c>
@@ -4063,7 +3542,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="2:5">
       <c r="B86" s="1" t="s">
         <v>156</v>
       </c>
@@ -4071,7 +3550,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="2:5">
       <c r="B87" s="1" t="s">
         <v>158</v>
       </c>
@@ -4079,7 +3558,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" ht="29.05" spans="3:5">
+    <row r="88" spans="2:5">
       <c r="C88" s="1" t="s">
         <v>160</v>
       </c>
@@ -4087,7 +3566,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="2:5">
       <c r="B89" s="1" t="s">
         <v>162</v>
       </c>
@@ -4095,7 +3574,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="90" ht="43.55" spans="2:3">
+    <row r="90" spans="2:5" ht="43.6">
       <c r="B90" s="1" t="s">
         <v>164</v>
       </c>
@@ -4103,7 +3582,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:5">
       <c r="B91" s="1" t="s">
         <v>166</v>
       </c>
@@ -4111,7 +3590,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="92" ht="29.05" spans="2:3">
+    <row r="92" spans="2:5" ht="29.05">
       <c r="B92" s="1" t="s">
         <v>168</v>
       </c>
@@ -4119,7 +3598,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" ht="29.05" spans="2:3">
+    <row r="93" spans="2:5" ht="29.05">
       <c r="B93" s="1" t="s">
         <v>170</v>
       </c>
@@ -4127,7 +3606,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" ht="29.05" spans="2:3">
+    <row r="94" spans="2:5" ht="29.05">
       <c r="B94" s="1" t="s">
         <v>172</v>
       </c>
@@ -4135,12 +3614,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:5">
       <c r="B96" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="2:4">
       <c r="B97" s="12" t="s">
         <v>175</v>
       </c>
@@ -4148,7 +3627,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="98" ht="29.05" spans="2:3">
+    <row r="98" spans="2:4" ht="29.05">
       <c r="B98" s="1" t="s">
         <v>177</v>
       </c>
@@ -4156,7 +3635,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="99" ht="29.05" spans="2:3">
+    <row r="99" spans="2:4" ht="29.05">
       <c r="B99" s="1" t="s">
         <v>179</v>
       </c>
@@ -4175,7 +3654,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" ht="43.55" spans="2:3">
+    <row r="101" spans="2:4" ht="43.6">
       <c r="B101" s="1" t="s">
         <v>184</v>
       </c>
@@ -4205,7 +3684,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
+    <row r="104" spans="2:4">
       <c r="B104" s="1" t="s">
         <v>192</v>
       </c>
@@ -4213,7 +3692,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
+    <row r="105" spans="2:4">
       <c r="B105" s="1" t="s">
         <v>194</v>
       </c>
@@ -4221,7 +3700,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="106" ht="29.05" spans="2:3">
+    <row r="106" spans="2:4" ht="29.05">
       <c r="B106" s="1" t="s">
         <v>196</v>
       </c>
@@ -4229,7 +3708,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
+    <row r="107" spans="2:4" ht="29.05">
       <c r="B107" s="1" t="s">
         <v>198</v>
       </c>
@@ -4246,7 +3725,7 @@
       </c>
       <c r="D108" s="6"/>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:4">
       <c r="B110" s="11" t="s">
         <v>202</v>
       </c>
@@ -4273,7 +3752,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" ht="29.05" spans="2:4">
+    <row r="113" spans="2:4" ht="29.05">
       <c r="B113" s="1" t="s">
         <v>209</v>
       </c>
@@ -4281,7 +3760,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="114" ht="29.05" spans="2:4">
+    <row r="114" spans="2:4" ht="29.05">
       <c r="B114" s="1" t="s">
         <v>211</v>
       </c>
@@ -4289,7 +3768,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="115" ht="29.05" spans="2:4">
+    <row r="115" spans="2:4">
       <c r="B115" s="1" t="s">
         <v>213</v>
       </c>
@@ -4297,7 +3776,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" ht="29.05" spans="2:4">
+    <row r="116" spans="2:4" ht="29.05">
       <c r="B116" s="1" t="s">
         <v>215</v>
       </c>
@@ -4327,7 +3806,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="119" ht="29.05" spans="2:4">
+    <row r="119" spans="2:4">
       <c r="B119" s="1" t="s">
         <v>223</v>
       </c>
@@ -4335,7 +3814,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="120" ht="29.05" spans="2:4">
+    <row r="120" spans="2:4" ht="29.05">
       <c r="B120" s="1" t="s">
         <v>225</v>
       </c>
@@ -4346,7 +3825,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" ht="29.05" spans="2:4">
+    <row r="121" spans="2:4" ht="29.05">
       <c r="B121" s="1" t="s">
         <v>228</v>
       </c>
@@ -4357,7 +3836,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="122" ht="29.05" spans="2:4">
+    <row r="122" spans="2:4" ht="29.05">
       <c r="B122" s="1" t="s">
         <v>231</v>
       </c>
@@ -4370,29 +3849,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88073394495413" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.55"/>
   <cols>
-    <col min="2" max="2" width="16.4311926605505" customWidth="1"/>
-    <col min="3" max="3" width="30.9724770642202" customWidth="1"/>
-    <col min="4" max="4" width="16.8807339449541" customWidth="1"/>
-    <col min="5" max="5" width="34.5229357798165" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4">
+    <row r="1" spans="2:6">
       <c r="C1" t="s">
         <v>234</v>
       </c>
@@ -4400,7 +3877,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="3:4">
+    <row r="2" spans="2:6">
       <c r="C2" t="s">
         <v>236</v>
       </c>
@@ -4408,7 +3885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" spans="2:6">
       <c r="C3" t="s">
         <v>237</v>
       </c>
@@ -4416,7 +3893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="2:6">
       <c r="C4" t="s">
         <v>238</v>
       </c>
@@ -4424,7 +3901,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="2:6">
       <c r="C5" t="s">
         <v>239</v>
       </c>
@@ -4432,7 +3909,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="2:6">
       <c r="C6" t="s">
         <v>240</v>
       </c>
@@ -4440,7 +3917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="2:6">
       <c r="C7" t="s">
         <v>241</v>
       </c>
@@ -4448,12 +3925,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:6">
       <c r="B10" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="11" ht="43.55" spans="2:3">
+    <row r="11" spans="2:6" ht="43.6">
       <c r="B11" s="11" t="s">
         <v>243</v>
       </c>
@@ -4461,7 +3938,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" ht="29.05" spans="2:3">
+    <row r="12" spans="2:6" ht="29.05">
       <c r="B12" s="11" t="s">
         <v>245</v>
       </c>
@@ -4469,7 +3946,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="72.6" spans="2:5">
+    <row r="13" spans="2:6" s="4" customFormat="1" ht="58.1">
       <c r="B13" s="12" t="s">
         <v>247</v>
       </c>
@@ -4481,7 +3958,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" ht="58.1" spans="2:6">
+    <row r="14" spans="2:6" ht="58.1">
       <c r="B14" s="12" t="s">
         <v>250</v>
       </c>
@@ -4492,7 +3969,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="116.15" spans="2:4">
+    <row r="15" spans="2:6" s="4" customFormat="1" ht="116.2">
       <c r="B15" s="12" t="s">
         <v>253</v>
       </c>
@@ -4503,7 +3980,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="29.05" spans="2:4">
+    <row r="16" spans="2:6" s="4" customFormat="1" ht="29.05">
       <c r="B16" s="12" t="s">
         <v>256</v>
       </c>
@@ -4512,11 +3989,11 @@
       </c>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" customFormat="1" spans="2:3">
+    <row r="17" spans="2:4">
       <c r="B17" s="12"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" s="4" customFormat="1" spans="2:4">
+    <row r="18" spans="2:4" s="4" customFormat="1">
       <c r="B18" s="12" t="s">
         <v>258</v>
       </c>
@@ -4525,7 +4002,7 @@
       </c>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" s="4" customFormat="1" ht="29.05" spans="2:4">
+    <row r="19" spans="2:4" s="4" customFormat="1" ht="29.05">
       <c r="B19" s="12" t="s">
         <v>260</v>
       </c>
@@ -4534,7 +4011,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" s="4" customFormat="1" ht="29.05" spans="2:4">
+    <row r="20" spans="2:4" s="4" customFormat="1" ht="29.05">
       <c r="B20" s="12" t="s">
         <v>262</v>
       </c>
@@ -4543,7 +4020,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" s="4" customFormat="1" spans="2:4">
+    <row r="21" spans="2:4" s="4" customFormat="1">
       <c r="B21" s="12" t="s">
         <v>264</v>
       </c>
@@ -4552,7 +4029,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" s="4" customFormat="1" spans="2:4">
+    <row r="22" spans="2:4" s="4" customFormat="1">
       <c r="B22" s="12" t="s">
         <v>266</v>
       </c>
@@ -4561,7 +4038,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" s="4" customFormat="1" ht="72.6" spans="2:4">
+    <row r="23" spans="2:4" s="4" customFormat="1" ht="58.1">
       <c r="B23" s="12" t="s">
         <v>268</v>
       </c>
@@ -4572,12 +4049,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" spans="2:4">
+    <row r="24" spans="2:4" s="4" customFormat="1">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" s="4" customFormat="1" ht="29.05" spans="2:4">
+    <row r="25" spans="2:4" s="4" customFormat="1">
       <c r="B25" s="12" t="s">
         <v>271</v>
       </c>
@@ -4588,7 +4065,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" spans="2:4">
+    <row r="26" spans="2:4" s="4" customFormat="1">
       <c r="B26" s="12" t="s">
         <v>274</v>
       </c>
@@ -4597,7 +4074,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" s="4" customFormat="1" ht="43.55" spans="2:4">
+    <row r="27" spans="2:4" s="4" customFormat="1" ht="43.6">
       <c r="B27" s="12" t="s">
         <v>276</v>
       </c>
@@ -4608,7 +4085,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" spans="2:4">
+    <row r="28" spans="2:4" s="4" customFormat="1">
       <c r="B28" s="12" t="s">
         <v>279</v>
       </c>
@@ -4617,7 +4094,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" s="4" customFormat="1" ht="58.1" spans="2:4">
+    <row r="29" spans="2:4" s="4" customFormat="1" ht="58.1">
       <c r="B29" s="12" t="s">
         <v>281</v>
       </c>
@@ -4628,7 +4105,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" s="4" customFormat="1" ht="43.55" spans="2:4">
+    <row r="30" spans="2:4" s="4" customFormat="1" ht="43.6">
       <c r="B30" s="12" t="s">
         <v>284</v>
       </c>
@@ -4639,7 +4116,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" ht="58.1" spans="2:4">
+    <row r="31" spans="2:4" s="4" customFormat="1" ht="58.1">
       <c r="B31" s="12" t="s">
         <v>287</v>
       </c>
@@ -4650,7 +4127,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" spans="2:4">
+    <row r="32" spans="2:4" s="4" customFormat="1">
       <c r="B32" s="12" t="s">
         <v>290</v>
       </c>
@@ -4659,7 +4136,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" s="4" customFormat="1" ht="29.05" spans="2:5">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="29.05">
       <c r="B33" s="12" t="s">
         <v>292</v>
       </c>
@@ -4671,7 +4148,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" ht="43.55" spans="2:3">
+    <row r="34" spans="1:5" ht="43.6">
       <c r="B34" t="s">
         <v>295</v>
       </c>
@@ -4679,7 +4156,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>297</v>
       </c>
@@ -4690,7 +4167,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>300</v>
       </c>
@@ -4700,25 +4177,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:D105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:D106"/>
   <sheetViews>
-    <sheetView topLeftCell="B93" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88990825688073" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.55"/>
   <cols>
-    <col min="2" max="2" width="19.7798165137615" customWidth="1"/>
-    <col min="3" max="3" width="32.1100917431193" customWidth="1"/>
-    <col min="4" max="4" width="36.3302752293578" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -4743,7 +4218,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="29.05" spans="2:4">
+    <row r="3" spans="2:4" s="4" customFormat="1" ht="29.05">
       <c r="B3" s="7" t="s">
         <v>308</v>
       </c>
@@ -4754,7 +4229,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="2:4">
+    <row r="4" spans="2:4" s="4" customFormat="1">
       <c r="B4" s="7" t="s">
         <v>311</v>
       </c>
@@ -4765,19 +4240,19 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="2:4">
+    <row r="5" spans="2:4" s="4" customFormat="1">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" s="4" customFormat="1" spans="2:4">
+    <row r="6" spans="2:4" s="4" customFormat="1">
       <c r="B6" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" s="4" customFormat="1" spans="2:4">
+    <row r="7" spans="2:4" s="4" customFormat="1">
       <c r="B7" s="7" t="s">
         <v>314</v>
       </c>
@@ -4786,7 +4261,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" s="4" customFormat="1" spans="2:4">
+    <row r="8" spans="2:4" s="4" customFormat="1">
       <c r="B8" s="7" t="s">
         <v>316</v>
       </c>
@@ -4795,7 +4270,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" s="4" customFormat="1" spans="2:4">
+    <row r="9" spans="2:4" s="4" customFormat="1">
       <c r="B9" s="7" t="s">
         <v>318</v>
       </c>
@@ -4804,7 +4279,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" s="4" customFormat="1" ht="58.1" spans="2:4">
+    <row r="10" spans="2:4" s="4" customFormat="1" ht="58.1">
       <c r="B10" s="7" t="s">
         <v>320</v>
       </c>
@@ -4813,7 +4288,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="43.55" spans="2:4">
+    <row r="11" spans="2:4" s="4" customFormat="1" ht="43.6">
       <c r="B11" s="7" t="s">
         <v>322</v>
       </c>
@@ -4822,7 +4297,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" spans="2:4">
+    <row r="12" spans="2:4" s="4" customFormat="1">
       <c r="B12" s="7" t="s">
         <v>324</v>
       </c>
@@ -4831,7 +4306,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" s="4" customFormat="1" spans="2:4">
+    <row r="13" spans="2:4" s="4" customFormat="1" ht="29.05">
       <c r="B13" s="7" t="s">
         <v>326</v>
       </c>
@@ -4840,7 +4315,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" s="4" customFormat="1" spans="2:4">
+    <row r="14" spans="2:4" s="4" customFormat="1">
       <c r="B14" s="7" t="s">
         <v>328</v>
       </c>
@@ -4849,7 +4324,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" s="4" customFormat="1" spans="2:4">
+    <row r="15" spans="2:4" s="4" customFormat="1">
       <c r="B15" s="7" t="s">
         <v>330</v>
       </c>
@@ -4858,7 +4333,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" s="4" customFormat="1" spans="2:4">
+    <row r="16" spans="2:4" s="4" customFormat="1">
       <c r="B16" s="7" t="s">
         <v>332</v>
       </c>
@@ -4867,7 +4342,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" s="4" customFormat="1" spans="2:4">
+    <row r="17" spans="2:4" s="4" customFormat="1">
       <c r="B17" s="7" t="s">
         <v>334</v>
       </c>
@@ -4876,7 +4351,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" s="4" customFormat="1" spans="2:4">
+    <row r="18" spans="2:4" s="4" customFormat="1">
       <c r="B18" s="7" t="s">
         <v>336</v>
       </c>
@@ -4885,7 +4360,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" s="4" customFormat="1" spans="2:4">
+    <row r="19" spans="2:4" s="4" customFormat="1">
       <c r="B19" s="7" t="s">
         <v>338</v>
       </c>
@@ -4912,7 +4387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="43.55" spans="2:4">
+    <row r="22" spans="2:4" ht="43.6">
       <c r="B22" s="6" t="s">
         <v>341</v>
       </c>
@@ -5004,7 +4479,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" ht="29.05" spans="2:4">
+    <row r="32" spans="2:4" ht="29.05">
       <c r="B32" s="6" t="s">
         <v>360</v>
       </c>
@@ -5029,10 +4504,10 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="2:4">
       <c r="D35"/>
     </row>
-    <row r="36" ht="43.55" spans="2:4">
+    <row r="36" spans="2:4" ht="43.6">
       <c r="B36" s="6" t="s">
         <v>364</v>
       </c>
@@ -5068,7 +4543,7 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" ht="29.05" spans="2:4">
+    <row r="40" spans="2:4" ht="29.05">
       <c r="B40" s="6" t="s">
         <v>372</v>
       </c>
@@ -5077,7 +4552,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" ht="43.55" spans="2:4">
+    <row r="41" spans="2:4" ht="43.6">
       <c r="B41" s="6" t="s">
         <v>374</v>
       </c>
@@ -5088,7 +4563,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="42" ht="72.6" spans="2:4">
+    <row r="42" spans="2:4" ht="72.599999999999994">
       <c r="B42" s="6" t="s">
         <v>377</v>
       </c>
@@ -5099,7 +4574,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" ht="29.05" spans="2:4">
+    <row r="43" spans="2:4" ht="29.05">
       <c r="B43" s="6" t="s">
         <v>380</v>
       </c>
@@ -5108,7 +4583,7 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" ht="58.1" spans="2:4">
+    <row r="44" spans="2:4" ht="58.1">
       <c r="B44" s="6" t="s">
         <v>382</v>
       </c>
@@ -5117,7 +4592,7 @@
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" ht="29.05" spans="2:4">
+    <row r="45" spans="2:4" ht="29.05">
       <c r="B45" s="6" t="s">
         <v>384</v>
       </c>
@@ -5135,7 +4610,7 @@
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" ht="43.55" spans="2:4">
+    <row r="47" spans="2:4" ht="43.6">
       <c r="B47" s="6" t="s">
         <v>388</v>
       </c>
@@ -5177,7 +4652,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="51" ht="58.1" spans="2:4">
+    <row r="51" spans="2:4" ht="58.1">
       <c r="B51" s="6" t="s">
         <v>399</v>
       </c>
@@ -5245,7 +4720,7 @@
       </c>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" ht="29.05" spans="2:4">
+    <row r="59" spans="2:4">
       <c r="B59" s="6" t="s">
         <v>412</v>
       </c>
@@ -5263,7 +4738,7 @@
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" ht="29.05" spans="2:4">
+    <row r="61" spans="2:4" ht="29.05">
       <c r="B61" s="6" t="s">
         <v>416</v>
       </c>
@@ -5272,7 +4747,7 @@
       </c>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" ht="29.05" spans="2:4">
+    <row r="62" spans="2:4" ht="29.05">
       <c r="B62" s="6" t="s">
         <v>418</v>
       </c>
@@ -5288,7 +4763,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" ht="43.55" spans="2:4">
+    <row r="64" spans="2:4" ht="43.6">
       <c r="B64" s="6" t="s">
         <v>421</v>
       </c>
@@ -5315,7 +4790,7 @@
       </c>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" ht="43.55" spans="2:4">
+    <row r="67" spans="2:4" ht="29.05">
       <c r="B67" s="6" t="s">
         <v>427</v>
       </c>
@@ -5324,215 +4799,213 @@
       </c>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" ht="29.05" spans="2:4">
+    <row r="68" spans="2:4">
       <c r="B68" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" ht="29.05" spans="2:4">
-      <c r="B69" s="6" t="s">
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" ht="43.55" spans="2:4">
-      <c r="B70" s="6" t="s">
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="2:4" ht="29.05">
+      <c r="B71" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="71" ht="29.05" spans="2:4">
-      <c r="B71" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" ht="29.05" spans="2:4">
+    <row r="72" spans="2:4">
       <c r="B72" s="6" t="s">
         <v>436</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="2:4" ht="29.05">
+      <c r="B73" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" ht="29.05" spans="2:3">
-      <c r="B73" t="s">
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
         <v>439</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="74" ht="29.05" spans="2:3">
-      <c r="B74" t="s">
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
         <v>441</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
-      <c r="B75" t="s">
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
         <v>443</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="76" ht="43.55" spans="3:3">
-      <c r="C76" s="1" t="s">
+    <row r="77" spans="2:4" ht="29.05">
+      <c r="C77" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
-      <c r="B77" t="s">
+    <row r="78" spans="2:4">
+      <c r="B78" t="s">
         <v>446</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
-      <c r="B78" t="s">
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
         <v>448</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="1"/>
-    </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="8" t="s">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" ht="87.15" spans="2:4">
-      <c r="B81" s="7" t="s">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="2:4" ht="72.599999999999994">
+      <c r="B82" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" ht="72.6" spans="2:4">
-      <c r="B82" s="7" t="s">
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="2:4" ht="72.599999999999994">
+      <c r="B83" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" s="7" t="s">
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="B84" s="7"/>
-      <c r="C84" s="6"/>
       <c r="D84" s="6"/>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="B86" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88" spans="2:4">
       <c r="B88" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D89" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="9" t="s">
+    <row r="90" spans="2:4">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
-      <c r="B91" s="8" t="s">
+    <row r="92" spans="2:4">
+      <c r="B92" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" ht="29.05" spans="2:4">
-      <c r="B92" s="6" t="s">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="2:4" ht="29.05">
+      <c r="B93" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>473</v>
@@ -5540,139 +5013,148 @@
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="C94" s="6"/>
+        <v>474</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>475</v>
+      </c>
       <c r="D94" s="6" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>479</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="C95" s="6"/>
       <c r="D95" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C97" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D97" s="6" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="97" ht="29.05" spans="2:4">
-      <c r="B97" s="6" t="s">
+    <row r="98" spans="2:4" ht="29.05">
+      <c r="B98" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C98" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="98" ht="72.6" spans="2:4">
-      <c r="B98" s="6" t="s">
+    <row r="99" spans="2:4" ht="72.599999999999994">
+      <c r="B99" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" ht="72.6" spans="2:4">
-      <c r="B99" s="6" t="s">
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="2:4" ht="58.1">
+      <c r="B100" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" ht="29.05" spans="2:4">
-      <c r="B100" s="6" t="s">
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="2:4" ht="29.05">
+      <c r="B101" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="101" ht="29.05" spans="2:4">
-      <c r="B101" s="6" t="s">
+    <row r="102" spans="2:4" ht="29.05">
+      <c r="B102" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" ht="58.1" spans="2:4">
-      <c r="B102" s="6" t="s">
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="2:4" ht="58.1">
+      <c r="B103" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C103" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D103" s="6" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="103" ht="43.55" spans="2:4">
-      <c r="B103" s="6" t="s">
+    <row r="104" spans="2:4" ht="43.6">
+      <c r="B104" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C104" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D104" s="6" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="1" t="s">
+    <row r="105" spans="2:4">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C105" s="1"/>
+      <c r="C106" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E85" r:id="rId3" tooltip="https://access.redhat.com/articles/1189123"/>
+    <hyperlink ref="E86" r:id="rId1" tooltip="https://access.redhat.com/articles/1189123" display="https://access.redhat.com/articles/1189123" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88990825688073" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.55"/>
   <cols>
-    <col min="2" max="2" width="29.8899082568807" customWidth="1"/>
-    <col min="3" max="3" width="43.8532110091743" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -5715,7 +5197,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="2:3">
       <c r="C7" t="s">
         <v>512</v>
       </c>
@@ -5728,7 +5210,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="9" ht="43.55" spans="2:3">
+    <row r="9" spans="2:3" ht="43.6">
       <c r="B9" t="s">
         <v>515</v>
       </c>
@@ -5736,7 +5218,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="2:3">
       <c r="C10" t="s">
         <v>517</v>
       </c>
@@ -5749,7 +5231,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="13" ht="29.05" spans="2:3">
+    <row r="13" spans="2:3" ht="29.05">
       <c r="B13" s="3" t="s">
         <v>520</v>
       </c>
@@ -5767,50 +5249,48 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId3" display="https://access.redhat.com/articles/1189123"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88990825688073" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.55"/>
   <cols>
-    <col min="2" max="2" width="18.7798165137615" customWidth="1"/>
-    <col min="3" max="3" width="15.1009174311927" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="6" ht="29.05" spans="2:3">
+    <row r="6" spans="2:3" ht="29.05">
       <c r="B6" t="s">
         <v>528</v>
       </c>
@@ -5820,76 +5300,185 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88073394495413" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.55"/>
   <cols>
-    <col min="2" max="2" width="43.1834862385321" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="7" ht="43.55" spans="2:2">
+      <c r="C6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="43.6">
       <c r="B7" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>538</v>
       </c>
     </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>539</v>
+      </c>
+      <c r="C14" t="s">
+        <v>540</v>
+      </c>
+      <c r="D14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>542</v>
+      </c>
+      <c r="C15" t="s">
+        <v>543</v>
+      </c>
+      <c r="D15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="43.6">
+      <c r="B16" t="s">
+        <v>546</v>
+      </c>
+      <c r="C16" t="s">
+        <v>547</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>548</v>
+      </c>
+      <c r="C17" t="s">
+        <v>549</v>
+      </c>
+      <c r="D17" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="43.6">
+      <c r="B18" t="s">
+        <v>552</v>
+      </c>
+      <c r="C18" t="s">
+        <v>551</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DA8AE9-D913-4658-A127-1A66A03CD2F2}">
+  <dimension ref="B1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.55"/>
+  <cols>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="29.05">
+      <c r="B1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="29.05">
+      <c r="B2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="29.05">
+      <c r="B3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="29.05">
+      <c r="B4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>